--- a/PCAcombined_predicted_variables_matrix_8.xlsx
+++ b/PCAcombined_predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.5358399348383548</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5358349589114084</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5358300783673753</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5358322542827616</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5358335254998216</v>
+        <v>0.5358466884632158</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.536108518951958</v>
       </c>
       <c r="B3" t="n">
-        <v>0.536125071221617</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5361255838453899</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5361225524853841</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5361200342871579</v>
+        <v>0.536124507851602</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>0.5361045053717921</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5361388978103356</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5361298291608408</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5361242859335902</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5361206854969953</v>
+        <v>0.5361269619419827</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5358916461152908</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5359415899740418</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5359411585555384</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5359397396113224</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5359380953252681</v>
+        <v>0.5359392835043352</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>0.5360910181800183</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5360676092405078</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.536090709476479</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.536095455345311</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5360965561423268</v>
+        <v>0.5360815923142859</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.5357342911695911</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5357284467266944</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5357312953677488</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5357348770803572</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5357362575964818</v>
+        <v>0.5357755033776872</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.535958289746534</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5359369257677978</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5359163465477037</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5359057466758677</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5358999508214857</v>
+        <v>0.5359283106681179</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.5357856956007885</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5357891264451983</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5357800885272009</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5357764617349968</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5357741668253101</v>
+        <v>0.5358226374922195</v>
       </c>
     </row>
     <row r="10">
@@ -591,16 +510,7 @@
         <v>0.5362243194056533</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5362199479096046</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5362114311708561</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5362072219192215</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5362048104164201</v>
+        <v>0.5362589719241445</v>
       </c>
     </row>
     <row r="11">
@@ -608,16 +518,7 @@
         <v>0.5358159743936004</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5358598322219507</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5358646217220883</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5358643498319576</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5358628511482381</v>
+        <v>0.5358818856574308</v>
       </c>
     </row>
     <row r="12">
@@ -625,16 +526,7 @@
         <v>0.5358725538960774</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5359349740068107</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5359354934184616</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5359295264352932</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.5359244686329017</v>
+        <v>0.5359302383735592</v>
       </c>
     </row>
     <row r="13">
@@ -642,16 +534,7 @@
         <v>0.53592659464905</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5359464206287683</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5359509771112831</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.5359477587852211</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5359445409357496</v>
+        <v>0.5359782561916624</v>
       </c>
     </row>
     <row r="14">
@@ -659,16 +542,7 @@
         <v>0.5358948839307976</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5359902064207767</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5360014987922758</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.5359988483782093</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5359951139572036</v>
+        <v>0.5360041633922975</v>
       </c>
     </row>
     <row r="15">
@@ -676,16 +550,7 @@
         <v>0.535842981524946</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5359109486612739</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5359043389922856</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.5358964093843879</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5358905412668971</v>
+        <v>0.5359385319774919</v>
       </c>
     </row>
     <row r="16">
@@ -693,16 +558,7 @@
         <v>0.5360785165256016</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5361603640956684</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5361504451608495</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5361408882977798</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5361345248066094</v>
+        <v>0.5361794125381962</v>
       </c>
     </row>
     <row r="17">
@@ -710,16 +566,7 @@
         <v>0.5361969328820243</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5362223034719824</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5362192784595333</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.53621455893938</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5362109232116592</v>
+        <v>0.5362320500512799</v>
       </c>
     </row>
     <row r="18">
@@ -727,16 +574,7 @@
         <v>0.5358616314985675</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5358865321513563</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5358813477377796</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5358731781914178</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5358672985922761</v>
+        <v>0.5359108292997514</v>
       </c>
     </row>
     <row r="19">
@@ -744,16 +582,7 @@
         <v>0.5360278541919269</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5361109508240418</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.536138281500395</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5361405782815369</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5361384880705634</v>
+        <v>0.5361718294841181</v>
       </c>
     </row>
     <row r="20">
@@ -761,16 +590,7 @@
         <v>0.5360840606909374</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5361132015475846</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5360964160125169</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.536085458619901</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5360788296841871</v>
+        <v>0.5361095885538865</v>
       </c>
     </row>
     <row r="21">
@@ -778,16 +598,7 @@
         <v>0.5361933053551124</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5362720770920983</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5362677149590847</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.5362616200338274</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5362573713063252</v>
+        <v>0.5362707074571351</v>
       </c>
     </row>
     <row r="22">
@@ -795,16 +606,7 @@
         <v>0.5360819710576302</v>
       </c>
       <c r="B22" t="n">
-        <v>0.536115412163832</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5361238174097458</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5361209078697043</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5361176314679365</v>
+        <v>0.5361235278901136</v>
       </c>
     </row>
     <row r="23">
@@ -812,16 +614,7 @@
         <v>0.535809425337198</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5358720511268189</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.535878392737018</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.535873089804501</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5358681311908241</v>
+        <v>0.5358658845576304</v>
       </c>
     </row>
     <row r="24">
@@ -829,16 +622,7 @@
         <v>0.5359660656870827</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5370603920757216</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.5369169230205211</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5368574839235702</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5368258686728132</v>
+        <v>0.5364914635766317</v>
       </c>
     </row>
     <row r="25">
@@ -846,16 +630,7 @@
         <v>0.5362936184297907</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5362079853549028</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5361934468433202</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5361890886355755</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5361884582659714</v>
+        <v>0.5362055233769952</v>
       </c>
     </row>
     <row r="26">
@@ -863,16 +638,7 @@
         <v>0.5359741904392681</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5361003920206001</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5361078674713672</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5360981939702967</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.53609092595395</v>
+        <v>0.5360109755135427</v>
       </c>
     </row>
     <row r="27">
@@ -880,16 +646,7 @@
         <v>0.5360165898510362</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5359700144493283</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5359949442911</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5360063567637493</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5360129136749961</v>
+        <v>0.5359808892053876</v>
       </c>
     </row>
     <row r="28">
@@ -897,16 +654,7 @@
         <v>0.5364008156243798</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5364978222764269</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5364764985621139</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.5364781770463148</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.5364821915465259</v>
+        <v>0.5364314030982181</v>
       </c>
     </row>
     <row r="29">
@@ -914,16 +662,7 @@
         <v>0.5361874269318327</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5368003969313175</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5368724062176848</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5369001790974111</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.536910718642011</v>
+        <v>0.5368104270190599</v>
       </c>
     </row>
     <row r="30">
@@ -931,16 +670,7 @@
         <v>0.5363237815003489</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5363445181512236</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5363574481475127</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5363676495772507</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5363739541509753</v>
+        <v>0.5363684734893379</v>
       </c>
     </row>
     <row r="31">
@@ -948,16 +678,7 @@
         <v>0.5358082039167643</v>
       </c>
       <c r="B31" t="n">
-        <v>0.535682047722406</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5357287463769443</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.5357401950281349</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.535744626216913</v>
+        <v>0.5357467160732567</v>
       </c>
     </row>
     <row r="32">
@@ -965,16 +686,7 @@
         <v>0.5363241908271122</v>
       </c>
       <c r="B32" t="n">
-        <v>0.536273532923872</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5362931178635949</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.5363061952349251</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5363142023260504</v>
+        <v>0.5363325235586552</v>
       </c>
     </row>
     <row r="33">
@@ -982,16 +694,7 @@
         <v>0.5363820865714968</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5363862370238976</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5364116030963491</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.5364213604290928</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5364262328477781</v>
+        <v>0.5364536637788695</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +702,7 @@
         <v>0.5355394909382701</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5355126665840821</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5354922046052747</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.5354904878577524</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5354913090488868</v>
+        <v>0.5355163777681263</v>
       </c>
     </row>
     <row r="35">
@@ -1016,16 +710,7 @@
         <v>0.5364529691951075</v>
       </c>
       <c r="B35" t="n">
-        <v>0.536467686341476</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5364662721272468</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5364664577819171</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5364668345927037</v>
+        <v>0.5364715269735638</v>
       </c>
     </row>
     <row r="36">
@@ -1033,16 +718,7 @@
         <v>0.5364728641263825</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5364464512206027</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5364443125175751</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5364462102180094</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5364480072761207</v>
+        <v>0.5364664575780271</v>
       </c>
     </row>
     <row r="37">
@@ -1050,16 +726,7 @@
         <v>0.5364594055286347</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5364644130382884</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5364422776013221</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.5364341063029848</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.5364307079022375</v>
+        <v>0.5364559662822237</v>
       </c>
     </row>
     <row r="38">
@@ -1067,16 +734,7 @@
         <v>0.5363942240766947</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5363496738197477</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.5363612903725254</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5363664849460605</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5363691563412946</v>
+        <v>0.5363847648833332</v>
       </c>
     </row>
     <row r="39">
@@ -1084,16 +742,7 @@
         <v>0.5363714496795603</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5363574732466978</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5363473260377705</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.536344339151327</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5363432713835524</v>
+        <v>0.5363741882409109</v>
       </c>
     </row>
     <row r="40">
@@ -1101,16 +750,7 @@
         <v>0.5364513832768374</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5364504207854077</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5364451861110224</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5364427207270528</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.5364417550285472</v>
+        <v>0.5364591006995325</v>
       </c>
     </row>
     <row r="41">
@@ -1118,16 +758,7 @@
         <v>0.5363375050136746</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5363286939733096</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5363223712368017</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.536320730921937</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5363203182027467</v>
+        <v>0.536326245149979</v>
       </c>
     </row>
     <row r="42">
@@ -1135,16 +766,7 @@
         <v>0.536375493020075</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5363681994576537</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5363634637462351</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.5363623688799261</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.5363620204201687</v>
+        <v>0.5363940604656754</v>
       </c>
     </row>
     <row r="43">
@@ -1152,16 +774,7 @@
         <v>0.5364154168224737</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5363943266931874</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.536390337756015</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.5363887447672808</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.53638810045635</v>
+        <v>0.5364092066979503</v>
       </c>
     </row>
     <row r="44">
@@ -1169,16 +782,7 @@
         <v>0.5363857830881189</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5364033129480532</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5363956745612347</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5363931986018434</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5363922490753105</v>
+        <v>0.5364293240123011</v>
       </c>
     </row>
     <row r="45">
@@ -1186,16 +790,7 @@
         <v>0.5364671022087396</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5364362434518424</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5364149883081608</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.5364103166348154</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.5364092849438964</v>
+        <v>0.5364625658202332</v>
       </c>
     </row>
     <row r="46">
@@ -1203,16 +798,7 @@
         <v>0.5352183134337793</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5352252014443151</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5352084410592428</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.5351989444170638</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.535191940386311</v>
+        <v>0.5352775955964376</v>
       </c>
     </row>
     <row r="47">
@@ -1220,16 +806,7 @@
         <v>0.5353919273025269</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5353844735060073</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.5353742298490092</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.5353683835292352</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.5353636665278387</v>
+        <v>0.5354455888872217</v>
       </c>
     </row>
     <row r="48">
@@ -1237,16 +814,7 @@
         <v>0.5354749875817533</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5354640549452053</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5354571954120722</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.535453193447459</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.5354493628309366</v>
+        <v>0.535527574739925</v>
       </c>
     </row>
     <row r="49">
@@ -1254,16 +822,7 @@
         <v>0.5355977702465878</v>
       </c>
       <c r="B49" t="n">
-        <v>0.53560555885197</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5355975814690392</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5355931727419381</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.5355893939672333</v>
+        <v>0.5356536237926945</v>
       </c>
     </row>
     <row r="50">
@@ -1271,16 +830,7 @@
         <v>0.5359067714999176</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5359321767650008</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5359302749520569</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5359280858563109</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.5359258171744529</v>
+        <v>0.5359761544477725</v>
       </c>
     </row>
     <row r="51">
@@ -1288,16 +838,7 @@
         <v>0.5355000358854616</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5354956700614224</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5354791518903805</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5354724533961961</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.5354679192615869</v>
+        <v>0.5355306788963459</v>
       </c>
     </row>
     <row r="52">
@@ -1305,16 +846,7 @@
         <v>0.5355000358854616</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5354956700614224</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5354791518903805</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5354724533961961</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.5354679192615869</v>
+        <v>0.5355306788963459</v>
       </c>
     </row>
     <row r="53">
@@ -1322,16 +854,7 @@
         <v>0.5353397265055284</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5353075972408571</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.5352988124843829</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.5352947442494886</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.5352907706747732</v>
+        <v>0.5353880784706949</v>
       </c>
     </row>
     <row r="54">
@@ -1339,16 +862,7 @@
         <v>0.535871554847803</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5358815433327712</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5358741328564253</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.5358706749731826</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.5358679064795467</v>
+        <v>0.5359215806972385</v>
       </c>
     </row>
     <row r="55">
@@ -1356,16 +870,7 @@
         <v>0.535381934462455</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5353572826800321</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5353583425993769</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.5353555578196925</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.5353518605412526</v>
+        <v>0.5354285510417639</v>
       </c>
     </row>
     <row r="56">
@@ -1373,16 +878,7 @@
         <v>0.5354129739337686</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5354488518468484</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5354358914571541</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5354273697891473</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.5354211924735671</v>
+        <v>0.5354859321838178</v>
       </c>
     </row>
     <row r="57">
@@ -1390,16 +886,7 @@
         <v>0.5353896686403766</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5353982537755632</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.5353883487490125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5353807394129658</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.5353747935856082</v>
+        <v>0.5354684856493344</v>
       </c>
     </row>
     <row r="58">
@@ -1407,16 +894,7 @@
         <v>0.5352786269740635</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5353163102259528</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.5353045312968149</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.5352978070369162</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.535292812909302</v>
+        <v>0.5353594129639948</v>
       </c>
     </row>
     <row r="59">
@@ -1424,16 +902,7 @@
         <v>0.5354849683213552</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5355119045188181</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5354980718509208</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.5354919605339067</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.5354875996108007</v>
+        <v>0.5355469011739745</v>
       </c>
     </row>
     <row r="60">
@@ -1441,16 +910,7 @@
         <v>0.5357145862258006</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5357194043339725</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.5357101113906317</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.5357063797483383</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.5357038000695484</v>
+        <v>0.5357401545771905</v>
       </c>
     </row>
     <row r="61">
@@ -1458,16 +918,7 @@
         <v>0.5362049963659792</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5362043181338316</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5362007101771674</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.5361990724528622</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.536197979686736</v>
+        <v>0.5362373406501691</v>
       </c>
     </row>
     <row r="62">
@@ -1475,16 +926,7 @@
         <v>0.5352608363302896</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5351793191087341</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5352093444789122</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.5352150440810549</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.5352146294011642</v>
+        <v>0.5353180180824203</v>
       </c>
     </row>
     <row r="63">
@@ -1492,16 +934,7 @@
         <v>0.5357255030290448</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5357066559452197</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5356693500571863</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.5356551406756348</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.5356481047767314</v>
+        <v>0.5356752659083244</v>
       </c>
     </row>
     <row r="64">
@@ -1509,16 +942,7 @@
         <v>0.5355134766566729</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5354440419623886</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5354501876899047</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.5354529457518573</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.5354529450110812</v>
+        <v>0.5355234127409872</v>
       </c>
     </row>
     <row r="65">
@@ -1526,16 +950,7 @@
         <v>0.5359241192285262</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5359696109147326</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5359525914945767</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.5359454611840878</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.5359412766278834</v>
+        <v>0.5359738268896811</v>
       </c>
     </row>
     <row r="66">
@@ -1543,16 +958,7 @@
         <v>0.5354915114837735</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5354663460932815</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.535480176141201</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.5354803580110241</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.5354781287278351</v>
+        <v>0.5355439886903963</v>
       </c>
     </row>
     <row r="67">
@@ -1560,16 +966,7 @@
         <v>0.5353889745421873</v>
       </c>
       <c r="B67" t="n">
-        <v>0.535492735938891</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.5354879518574669</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.5354805715264401</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.5354744179330928</v>
+        <v>0.5355486820968639</v>
       </c>
     </row>
     <row r="68">
@@ -1577,16 +974,7 @@
         <v>-0.9344714676928374</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.9490853089324551</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-0.9563001095310645</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.962403700578201</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.9676321500363014</v>
+        <v>-0.9345622898137876</v>
       </c>
     </row>
     <row r="69">
@@ -1594,16 +982,7 @@
         <v>-0.9503709618585634</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9686456708290928</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-0.9744528057035711</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.9800553172365079</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.9850771648006361</v>
+        <v>-0.9493769966391844</v>
       </c>
     </row>
     <row r="70">
@@ -1611,16 +990,7 @@
         <v>-0.9413702162538007</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.9502948738373534</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-0.9583538083859751</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.9648152641783181</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.970216060872247</v>
+        <v>-0.937985325340732</v>
       </c>
     </row>
     <row r="71">
@@ -1628,16 +998,7 @@
         <v>-0.9538040630559048</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.9628431356341494</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-0.969036151691416</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.9750368467732432</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.9803276708144759</v>
+        <v>-0.9447059819985435</v>
       </c>
     </row>
     <row r="72">
@@ -1645,16 +1006,7 @@
         <v>-0.9619266118482157</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.9780279705890321</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-0.9840928732858482</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-0.9896949430400593</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-0.9947057007954119</v>
+        <v>-0.9620648448930683</v>
       </c>
     </row>
     <row r="73">
@@ -1662,16 +1014,7 @@
         <v>-0.9201879026003208</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.9307823912793098</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-0.9395622013222197</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.9461873028740033</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-0.9516192044197861</v>
+        <v>-0.9211663084801494</v>
       </c>
     </row>
     <row r="74">
@@ -1679,16 +1022,7 @@
         <v>-0.9143766411765905</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.9208821880635046</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-0.9294576286887359</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.9361466359790422</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-0.9416472036152642</v>
+        <v>-0.9127111715107691</v>
       </c>
     </row>
     <row r="75">
@@ -1696,16 +1030,7 @@
         <v>-0.9191315128279712</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9390478112746236</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-0.9462682017128055</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.9524982248310181</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-0.9577537450616663</v>
+        <v>-0.9255923954089904</v>
       </c>
     </row>
     <row r="76">
@@ -1713,16 +1038,7 @@
         <v>-0.9371157672074795</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9544937745651455</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-0.9595684996068489</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.9651179510051826</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.9701432175167293</v>
+        <v>-0.934082920986929</v>
       </c>
     </row>
     <row r="77">
@@ -1730,16 +1046,7 @@
         <v>-0.9470650717164867</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.960537166732058</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-0.9693121764421981</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.9763119370966994</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-0.9820049079387381</v>
+        <v>-0.9496664835292097</v>
       </c>
     </row>
     <row r="78">
@@ -1747,16 +1054,7 @@
         <v>-0.9620117247238171</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.9627046357715584</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-0.9703052154918234</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-0.9771630056058613</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-0.9829363509891362</v>
+        <v>-0.9560817338787541</v>
       </c>
     </row>
     <row r="79">
@@ -1764,16 +1062,7 @@
         <v>-0.9694936327544991</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.9766411798929039</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-0.9836312361674355</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-0.9898897062824688</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-0.9953216517920801</v>
+        <v>-0.9632199971531268</v>
       </c>
     </row>
     <row r="80">
@@ -1781,16 +1070,7 @@
         <v>-0.9539594728361246</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.9637351718991668</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-0.9707633648015495</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-0.9771424595640107</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-0.9826140165044421</v>
+        <v>-0.9514822224774083</v>
       </c>
     </row>
     <row r="81">
@@ -1798,16 +1078,7 @@
         <v>-0.9516449288269695</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.9648034663344851</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-0.9690823598378744</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-0.9744810726445183</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-0.979512735583859</v>
+        <v>-0.945595910145094</v>
       </c>
     </row>
     <row r="82">
@@ -1815,16 +1086,7 @@
         <v>-0.961880312583095</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.9655865613136326</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-0.9747062217962471</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-0.981550311193691</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-0.9871597260435395</v>
+        <v>-0.9640810520477989</v>
       </c>
     </row>
     <row r="83">
@@ -1832,16 +1094,7 @@
         <v>-0.9655929059395875</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.9691045258915609</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-0.9751418490654781</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-0.9811694798708729</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-0.9865276382193051</v>
+        <v>-0.9561920962634105</v>
       </c>
     </row>
     <row r="84">
@@ -1849,16 +1102,7 @@
         <v>-0.9523777155166686</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.9652575431520836</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-0.9731812457237461</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-0.97995419271329</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-0.9855977343879778</v>
+        <v>-0.9527672428778527</v>
       </c>
     </row>
     <row r="85">
@@ -1866,16 +1110,7 @@
         <v>-0.9601239242485606</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.9650388958406367</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-0.9731395071906843</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-0.9797636720666919</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-0.985309696760273</v>
+        <v>-0.9546533917425912</v>
       </c>
     </row>
     <row r="86">
@@ -1883,16 +1118,7 @@
         <v>-0.9768410415661263</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.9852322316966929</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-0.9909015347797075</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-0.9968163004804375</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-1.00214965981803</v>
+        <v>-0.971388043857318</v>
       </c>
     </row>
     <row r="87">
@@ -1900,16 +1126,7 @@
         <v>-0.9498235124155909</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.9585782449561712</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.9658067482709808</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-0.9724352303770597</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.978047368147707</v>
+        <v>-0.9493372086769196</v>
       </c>
     </row>
     <row r="88">
@@ -1917,16 +1134,7 @@
         <v>-0.9873912803770205</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.019639285435221</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.00493025391008</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-1.040131012296138</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.06939064214711</v>
+        <v>-1.013743914406032</v>
       </c>
     </row>
     <row r="89">
@@ -1934,16 +1142,7 @@
         <v>-3.038987774329343</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.668222017328356</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-3.558319327195793</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-3.504989818202313</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-3.478609077463953</v>
+        <v>-3.110711257932476</v>
       </c>
     </row>
     <row r="90">
@@ -1951,16 +1150,7 @@
         <v>-1.136695399891307</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.057468465115051</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.066554492111448</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-1.068940015246373</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-1.072277789496184</v>
+        <v>-1.086024317995095</v>
       </c>
     </row>
     <row r="91">
@@ -1968,16 +1158,7 @@
         <v>-5.91709369145023</v>
       </c>
       <c r="B91" t="n">
-        <v>-4.533097034456893</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-4.82954207525623</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-4.980614851994629</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-5.065040473457631</v>
+        <v>-5.640156911017664</v>
       </c>
     </row>
     <row r="92">
@@ -1985,16 +1166,7 @@
         <v>-0.7032133636671631</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.8254636729005196</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-0.7844703819866727</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-0.768462277709168</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-0.7624185512107359</v>
+        <v>-0.7019504061144848</v>
       </c>
     </row>
     <row r="93">
@@ -2002,16 +1174,7 @@
         <v>-0.8564238268048654</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.280237253220248</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-1.073455323202272</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-1.04047942390408</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-1.036988291382117</v>
+        <v>-0.8101952186651157</v>
       </c>
     </row>
     <row r="94">
@@ -2019,16 +1182,7 @@
         <v>-1.144820800477816</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.211671532290082</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-1.217669197659984</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-1.22483763106008</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-1.231295708291541</v>
+        <v>-1.186409584528096</v>
       </c>
     </row>
     <row r="95">
@@ -2036,16 +1190,7 @@
         <v>-0.06685532666175453</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.642580516893056</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.8531891167073936</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.9415428426467676</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-0.9814843114234882</v>
+        <v>-0.3693106338281941</v>
       </c>
     </row>
     <row r="96">
@@ -2053,16 +1198,7 @@
         <v>-1.38248770263816</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.410734344863435</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-1.520566782278618</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-1.536984250967549</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-1.540439970032336</v>
+        <v>-1.43555226562793</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_variables_matrix_8.xlsx
+++ b/PCAcombined_predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.5358466884632158</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.5359044904316189</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5359766799826585</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.536124507851602</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.536182276694514</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5362538641314557</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>0.5361269619419827</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.5361860011551252</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5362580905741705</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.5359392835043352</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.536000994683873</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5360747749935768</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>0.5360815923142859</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.5361433074778187</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.536216742139292</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.5357755033776872</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.5358297258376816</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5358985437628071</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.5359283106681179</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.5359786613362646</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5360452673832371</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +552,12 @@
       <c r="B9" t="n">
         <v>0.5358226374922195</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.5358727469623079</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5359388452914872</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +566,12 @@
       <c r="B10" t="n">
         <v>0.5362589719241445</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.5363041886399519</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5363674678760465</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +580,12 @@
       <c r="B11" t="n">
         <v>0.5358818856574308</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.5359402399519617</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5360112400788</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +594,12 @@
       <c r="B12" t="n">
         <v>0.5359302383735592</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.5359896740693264</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5360619326814065</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +608,12 @@
       <c r="B13" t="n">
         <v>0.5359782561916624</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.5360323048915639</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.536100433921609</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +622,12 @@
       <c r="B14" t="n">
         <v>0.5360041633922975</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.5360626342391623</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5361340524651621</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +636,12 @@
       <c r="B15" t="n">
         <v>0.5359385319774919</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.535990365207947</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.536058196577351</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +650,12 @@
       <c r="B16" t="n">
         <v>0.5361794125381962</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.5362302892129496</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5362972237888607</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +664,12 @@
       <c r="B17" t="n">
         <v>0.5362320500512799</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.5362851834971246</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.536355567897571</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +678,12 @@
       <c r="B18" t="n">
         <v>0.5359108292997514</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.5359599753421735</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5360267323801901</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +692,12 @@
       <c r="B19" t="n">
         <v>0.5361718294841181</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.53623156927911</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5363038728810985</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +706,12 @@
       <c r="B20" t="n">
         <v>0.5361095885538865</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.5361643051506423</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.53623387649329</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +720,12 @@
       <c r="B21" t="n">
         <v>0.5362707074571351</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5363286776356985</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5363997486558428</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +734,12 @@
       <c r="B22" t="n">
         <v>0.5361235278901136</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.5361805418062141</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5362519696401004</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +748,12 @@
       <c r="B23" t="n">
         <v>0.5358658845576304</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.5359276127919957</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5360011799854941</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +762,12 @@
       <c r="B24" t="n">
         <v>0.5364914635766317</v>
       </c>
+      <c r="C24" t="n">
+        <v>0.5366157992286379</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5367379622656843</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +776,12 @@
       <c r="B25" t="n">
         <v>0.5362055233769952</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.5362457190785664</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5363063743396344</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +790,12 @@
       <c r="B26" t="n">
         <v>0.5360109755135427</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.536086495277347</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5361688983241917</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +804,12 @@
       <c r="B27" t="n">
         <v>0.5359808892053876</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.5360410329381795</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5361137692097433</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +818,12 @@
       <c r="B28" t="n">
         <v>0.5364314030982181</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.5364912123744932</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5365652409008206</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +832,12 @@
       <c r="B29" t="n">
         <v>0.5368104270190599</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.5368821133485187</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5369736574461362</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +846,12 @@
       <c r="B30" t="n">
         <v>0.5363684734893379</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.5364247078529585</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5364962681662111</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +860,12 @@
       <c r="B31" t="n">
         <v>0.5357467160732567</v>
       </c>
+      <c r="C31" t="n">
+        <v>0.5357989657627767</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5358650344439391</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +874,12 @@
       <c r="B32" t="n">
         <v>0.5363325235586552</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.5363842095892442</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5364510979543219</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +888,12 @@
       <c r="B33" t="n">
         <v>0.5364536637788695</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.5365065111490737</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.536574558555625</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +902,12 @@
       <c r="B34" t="n">
         <v>0.5355163777681263</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.5355637844301827</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.535628199612166</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +916,12 @@
       <c r="B35" t="n">
         <v>0.5364715269735638</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.5365276198298888</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5365985801145952</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +930,12 @@
       <c r="B36" t="n">
         <v>0.5364664575780271</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.5365189886340351</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5365875973402121</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +944,12 @@
       <c r="B37" t="n">
         <v>0.5364559662822237</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.5365053302058183</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5365716941489882</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +958,12 @@
       <c r="B38" t="n">
         <v>0.5363847648833332</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.5364376686844218</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5365066310825015</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +972,12 @@
       <c r="B39" t="n">
         <v>0.5363741882409109</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5364246252543838</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5364914169182421</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +986,12 @@
       <c r="B40" t="n">
         <v>0.5364591006995325</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.5365132448189159</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5365821793086273</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +1000,12 @@
       <c r="B41" t="n">
         <v>0.536326245149979</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5363823908159771</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5364533720669573</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +1014,12 @@
       <c r="B42" t="n">
         <v>0.5363940604656754</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.5364430501316804</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5365096391801391</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +1028,12 @@
       <c r="B43" t="n">
         <v>0.5364092066979503</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.5364602907138059</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5365280767770864</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +1042,12 @@
       <c r="B44" t="n">
         <v>0.5364293240123011</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.5364799315514859</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5365468175319996</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +1056,12 @@
       <c r="B45" t="n">
         <v>0.5364625658202332</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.5365068712248008</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5365697227767844</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +1070,12 @@
       <c r="B46" t="n">
         <v>0.5352775955964376</v>
       </c>
+      <c r="C46" t="n">
+        <v>0.5353250063361734</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5353888688439356</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +1084,12 @@
       <c r="B47" t="n">
         <v>0.5354455888872217</v>
       </c>
+      <c r="C47" t="n">
+        <v>0.5354919470205528</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5355553020364923</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +1098,12 @@
       <c r="B48" t="n">
         <v>0.535527574739925</v>
       </c>
+      <c r="C48" t="n">
+        <v>0.535576261112706</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5356411655607852</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +1112,12 @@
       <c r="B49" t="n">
         <v>0.5356536237926945</v>
       </c>
+      <c r="C49" t="n">
+        <v>0.535704194647569</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5357704631427017</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +1126,12 @@
       <c r="B50" t="n">
         <v>0.5359761544477725</v>
       </c>
+      <c r="C50" t="n">
+        <v>0.5360287322881367</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5360964708692709</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +1140,12 @@
       <c r="B51" t="n">
         <v>0.5355306788963459</v>
       </c>
+      <c r="C51" t="n">
+        <v>0.5355798431140888</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5356452428846348</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1154,12 @@
       <c r="B52" t="n">
         <v>0.5355306788963459</v>
       </c>
+      <c r="C52" t="n">
+        <v>0.5355798431140888</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5356452428846348</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1168,12 @@
       <c r="B53" t="n">
         <v>0.5353880784706949</v>
       </c>
+      <c r="C53" t="n">
+        <v>0.5354329175055714</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.535495406186451</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1182,12 @@
       <c r="B54" t="n">
         <v>0.5359215806972385</v>
       </c>
+      <c r="C54" t="n">
+        <v>0.5359724140150132</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5360390765079168</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1196,12 @@
       <c r="B55" t="n">
         <v>0.5354285510417639</v>
       </c>
+      <c r="C55" t="n">
+        <v>0.5354778299213241</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5355428276040749</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1210,12 @@
       <c r="B56" t="n">
         <v>0.5354859321838178</v>
       </c>
+      <c r="C56" t="n">
+        <v>0.5355365321939427</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5356023809235337</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1224,12 @@
       <c r="B57" t="n">
         <v>0.5354684856493344</v>
       </c>
+      <c r="C57" t="n">
+        <v>0.5355132577696916</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5355754912773626</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1238,12 @@
       <c r="B58" t="n">
         <v>0.5353594129639948</v>
       </c>
+      <c r="C58" t="n">
+        <v>0.5354099975970107</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5354756325308989</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1252,12 @@
       <c r="B59" t="n">
         <v>0.5355469011739745</v>
       </c>
+      <c r="C59" t="n">
+        <v>0.5355993314459421</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5356665426425798</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1266,12 @@
       <c r="B60" t="n">
         <v>0.5357401545771905</v>
       </c>
+      <c r="C60" t="n">
+        <v>0.5357943948945524</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.535863113310425</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1280,12 @@
       <c r="B61" t="n">
         <v>0.5362373406501691</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.5362884618822071</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5363555179978475</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1294,12 @@
       <c r="B62" t="n">
         <v>0.5353180180824203</v>
       </c>
+      <c r="C62" t="n">
+        <v>0.5353635739949306</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5354254032681126</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1308,12 @@
       <c r="B63" t="n">
         <v>0.5356752659083244</v>
       </c>
+      <c r="C63" t="n">
+        <v>0.5357266654453907</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5357936689779408</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1322,12 @@
       <c r="B64" t="n">
         <v>0.5355234127409872</v>
       </c>
+      <c r="C64" t="n">
+        <v>0.5355720472602677</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.535636941792506</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1336,12 @@
       <c r="B65" t="n">
         <v>0.5359738268896811</v>
       </c>
+      <c r="C65" t="n">
+        <v>0.5360278781252931</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5360968077721913</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1350,12 @@
       <c r="B66" t="n">
         <v>0.5355439886903963</v>
       </c>
+      <c r="C66" t="n">
+        <v>0.5355946601371959</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5356599382112465</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -968,6 +1364,12 @@
       <c r="B67" t="n">
         <v>0.5355486820968639</v>
       </c>
+      <c r="C67" t="n">
+        <v>0.5356001012931738</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5356659708259407</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -976,6 +1378,12 @@
       <c r="B68" t="n">
         <v>-0.9345622898137876</v>
       </c>
+      <c r="C68" t="n">
+        <v>-0.9353322633260462</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.937523186338129</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -984,6 +1392,12 @@
       <c r="B69" t="n">
         <v>-0.9493769966391844</v>
       </c>
+      <c r="C69" t="n">
+        <v>-0.9505301216038554</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.9530085180092344</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -992,6 +1406,12 @@
       <c r="B70" t="n">
         <v>-0.937985325340732</v>
       </c>
+      <c r="C70" t="n">
+        <v>-0.9384704991595808</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.9405032020650798</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1000,6 +1420,12 @@
       <c r="B71" t="n">
         <v>-0.9447059819985435</v>
       </c>
+      <c r="C71" t="n">
+        <v>-0.9456444920647085</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.9479152083168977</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1008,6 +1434,12 @@
       <c r="B72" t="n">
         <v>-0.9620648448930683</v>
       </c>
+      <c r="C72" t="n">
+        <v>-0.962669013592635</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.9646925219192611</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1016,6 +1448,12 @@
       <c r="B73" t="n">
         <v>-0.9211663084801494</v>
       </c>
+      <c r="C73" t="n">
+        <v>-0.921609150604112</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.9235670926511717</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1024,6 +1462,12 @@
       <c r="B74" t="n">
         <v>-0.9127111715107691</v>
       </c>
+      <c r="C74" t="n">
+        <v>-0.912671434386672</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.9143195759624099</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1032,6 +1476,12 @@
       <c r="B75" t="n">
         <v>-0.9255923954089904</v>
       </c>
+      <c r="C75" t="n">
+        <v>-0.9263891171115037</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.9285378937804631</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1040,6 +1490,12 @@
       <c r="B76" t="n">
         <v>-0.934082920986929</v>
       </c>
+      <c r="C76" t="n">
+        <v>-0.9353847024618075</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.9379769701435928</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1048,6 +1504,12 @@
       <c r="B77" t="n">
         <v>-0.9496664835292097</v>
       </c>
+      <c r="C77" t="n">
+        <v>-0.9505128797986605</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.9527522946453109</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1056,6 +1518,12 @@
       <c r="B78" t="n">
         <v>-0.9560817338787541</v>
       </c>
+      <c r="C78" t="n">
+        <v>-0.9554543945815905</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.9567249122464753</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1064,6 +1532,12 @@
       <c r="B79" t="n">
         <v>-0.9632199971531268</v>
       </c>
+      <c r="C79" t="n">
+        <v>-0.9634320512221561</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.9652407465194551</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1072,6 +1546,12 @@
       <c r="B80" t="n">
         <v>-0.9514822224774083</v>
       </c>
+      <c r="C80" t="n">
+        <v>-0.9515711851406866</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.9533741332904263</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1080,6 +1560,12 @@
       <c r="B81" t="n">
         <v>-0.945595910145094</v>
       </c>
+      <c r="C81" t="n">
+        <v>-0.9462260308523285</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.9483373964100602</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1088,6 +1574,12 @@
       <c r="B82" t="n">
         <v>-0.9640810520477989</v>
       </c>
+      <c r="C82" t="n">
+        <v>-0.9628341157755655</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.9635736654858603</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1096,6 +1588,12 @@
       <c r="B83" t="n">
         <v>-0.9561920962634105</v>
       </c>
+      <c r="C83" t="n">
+        <v>-0.9560472771095144</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.9576453332482111</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1104,6 +1602,12 @@
       <c r="B84" t="n">
         <v>-0.9527672428778527</v>
       </c>
+      <c r="C84" t="n">
+        <v>-0.9534022198541333</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.9555598524199626</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1112,6 +1616,12 @@
       <c r="B85" t="n">
         <v>-0.9546533917425912</v>
       </c>
+      <c r="C85" t="n">
+        <v>-0.9547292690196015</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.9565203295664046</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1120,6 +1630,12 @@
       <c r="B86" t="n">
         <v>-0.971388043857318</v>
       </c>
+      <c r="C86" t="n">
+        <v>-0.9712803174309667</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.9728789461540821</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1128,6 +1644,12 @@
       <c r="B87" t="n">
         <v>-0.9493372086769196</v>
       </c>
+      <c r="C87" t="n">
+        <v>-0.9492387611227006</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.9508811967828521</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1136,6 +1658,12 @@
       <c r="B88" t="n">
         <v>-1.013743914406032</v>
       </c>
+      <c r="C88" t="n">
+        <v>-1.031601072342323</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.043383595636894</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1144,6 +1672,12 @@
       <c r="B89" t="n">
         <v>-3.110711257932476</v>
       </c>
+      <c r="C89" t="n">
+        <v>-3.181349195823181</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.237420536308317</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1152,6 +1686,12 @@
       <c r="B90" t="n">
         <v>-1.086024317995095</v>
       </c>
+      <c r="C90" t="n">
+        <v>-1.072796672916136</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.066598785301912</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1160,6 +1700,12 @@
       <c r="B91" t="n">
         <v>-5.640156911017664</v>
       </c>
+      <c r="C91" t="n">
+        <v>-5.470816069991006</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5.363596269967878</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1168,6 +1714,12 @@
       <c r="B92" t="n">
         <v>-0.7019504061144848</v>
       </c>
+      <c r="C92" t="n">
+        <v>-0.7034451466430904</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.70846812835412</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1176,6 +1728,12 @@
       <c r="B93" t="n">
         <v>-0.8101952186651157</v>
       </c>
+      <c r="C93" t="n">
+        <v>-0.8407328640527287</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.8788841417815195</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1184,6 +1742,12 @@
       <c r="B94" t="n">
         <v>-1.186409584528096</v>
       </c>
+      <c r="C94" t="n">
+        <v>-1.188500971796456</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.191974432946112</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1192,6 +1756,12 @@
       <c r="B95" t="n">
         <v>-0.3693106338281941</v>
       </c>
+      <c r="C95" t="n">
+        <v>-0.5610160808230827</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.6865790864086656</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1199,6 +1769,12 @@
       </c>
       <c r="B96" t="n">
         <v>-1.43555226562793</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.457169339287537</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1.471539510992309</v>
       </c>
     </row>
   </sheetData>
